--- a/Data/50명 트위터 계정.xlsx
+++ b/Data/50명 트위터 계정.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chzos\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\THIS _\github\capstone_team2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD0B166-C0A5-40A9-8E3B-7FD216B5767D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C155933E-94A3-4CB3-82FC-7FDC8A09E772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="324" yWindow="384" windowWidth="22716" windowHeight="10488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="324" yWindow="1152" windowWidth="22716" windowHeight="10488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="59명" sheetId="5" r:id="rId1"/>
@@ -4869,7 +4869,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4902,99 +4902,99 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>451</v>
+      <c r="A3" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>447</v>
+      <c r="A5" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>462</v>
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="A7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>212</v>
+        <v>366</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>213</v>
+        <v>367</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>243</v>
+      <c r="A10" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>413</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
-        <v>366</v>
+        <v>323</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>447</v>
@@ -5013,79 +5013,79 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>323</v>
+        <v>376</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>322</v>
+        <v>575</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="A17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>132</v>
+      <c r="A18" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>399</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>451</v>
+      <c r="A19" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
@@ -5101,142 +5101,142 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>451</v>
+      <c r="A22" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>270</v>
+        <v>364</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>387</v>
+        <v>90</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>388</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>447</v>
+      <c r="A25" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>91</v>
+      <c r="A26" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>411</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>437</v>
+      <c r="A27" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>411</v>
+      <c r="A28" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>272</v>
+        <v>48</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>273</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>296</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>297</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>583</v>
+      <c r="A31" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>413</v>
+      <c r="A32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>154</v>
+      <c r="A33" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>437</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>448</v>
@@ -5244,10 +5244,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>451</v>
@@ -5375,36 +5375,36 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>448</v>
+      <c r="A46" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>189</v>
+        <v>393</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>190</v>
+        <v>559</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A48" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>452</v>
+      <c r="A48" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
@@ -5441,13 +5441,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C51" xr:uid="{54FF3444-E271-4995-9890-757A8FFA9778}"/>
+  <autoFilter ref="A1:C51" xr:uid="{54FF3444-E271-4995-9890-757A8FFA9778}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C51">
+      <sortCondition ref="A1:A51"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:A51">
-    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B51">
-    <cfRule type="duplicateValues" dxfId="0" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="40"/>
   </conditionalFormatting>
   <dataValidations count="10">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27" xr:uid="{931D2A32-66ED-4045-A370-16A0199CAE0F}">
@@ -9465,16 +9469,16 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C188">
-    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C251">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A500">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B500">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="11">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B158:B168 N32:N46" xr:uid="{00000000-0002-0000-0000-000000000000}">
